--- a/Examples/NETS_NYPS_68Bus_HighDamping_SingleSgCase.xlsx
+++ b/Examples/NETS_NYPS_68Bus_HighDamping_SingleSgCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596B1033-D244-469B-9B87-72B723598A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE8B5C2-C0B0-4B0C-98CC-9B4B2442BC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3292,7 +3292,7 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3364,10 +3364,10 @@
         <v>200</v>
       </c>
       <c r="E4" s="14">
-        <v>1.4999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F4" s="14">
-        <v>5.8333333333333336E-3</v>
+        <v>0</v>
       </c>
       <c r="G4" s="7"/>
       <c r="J4" s="2"/>
